--- a/DateBase/orders/Dang Nguyen_2025-6-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-20.xlsx
@@ -876,6 +876,9 @@
       <c r="G2" t="str">
         <v>0401610152060311020105515510106131510152010167565101110101510101052015101511615</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
